--- a/Gantt Chart.xlsx
+++ b/Gantt Chart.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10114"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1304B9DF-F79D-4649-AB6D-9C145D4EBD1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AA086B3-786B-DD46-AF61-68897B40E071}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38360" yWindow="-1400" windowWidth="38320" windowHeight="20760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project Planner" sheetId="1" r:id="rId1"/>
@@ -42,16 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
-  <si>
-    <t>Project Planner</t>
-  </si>
-  <si>
-    <t>PERIODS</t>
-  </si>
-  <si>
-    <t>ACTIVITY</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>Activity 01</t>
   </si>
@@ -129,6 +120,21 @@
   </si>
   <si>
     <t>Activity 26</t>
+  </si>
+  <si>
+    <t>PLAN START</t>
+  </si>
+  <si>
+    <t>Gantt</t>
+  </si>
+  <si>
+    <t>TASK</t>
+  </si>
+  <si>
+    <t>PLAN DAUER</t>
+  </si>
+  <si>
+    <t>Plan Dauer</t>
   </si>
   <si>
     <r>
@@ -157,29 +163,20 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>Complete</t>
+      <t>Komplett</t>
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1" tint="0.24994659260841701"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Actual (beyond plan</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1" tint="0.24994659260841701"/>
-        <rFont val="Corbel"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>)</t>
-    </r>
+    <t>PROZENT KOMPLETT</t>
+  </si>
+  <si>
+    <t>Eigentlicher Start</t>
+  </si>
+  <si>
+    <t>EIGENTLICHER START</t>
+  </si>
+  <si>
+    <t>EIGENTLICHER DAUER</t>
   </si>
   <si>
     <r>
@@ -208,35 +205,17 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>Complete (beyond plan)</t>
+      <t>Komplett (über geplant)</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve"> Period Highlight:</t>
-  </si>
-  <si>
-    <t>PLAN START</t>
-  </si>
-  <si>
-    <t>PLAN DURATION</t>
-  </si>
-  <si>
-    <t>ACTUAL START</t>
-  </si>
-  <si>
-    <t>ACTUAL DURATION</t>
-  </si>
-  <si>
-    <t>PERCENT COMPLETE</t>
-  </si>
-  <si>
-    <t>Actual Start</t>
-  </si>
-  <si>
-    <t>Plan Duration</t>
-  </si>
-  <si>
-    <t>Select a period to highlight at right.  A legend describing the charting follows.</t>
+    <t>Eigentlich  (über geplant)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Stunden Highlight:</t>
+  </si>
+  <si>
+    <t>STUNDEN</t>
   </si>
 </sst>
 </file>
@@ -533,7 +512,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -561,9 +540,6 @@
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="6" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -624,9 +600,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="10" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -637,6 +610,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1048,140 +1024,141 @@
     <tabColor theme="7"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:BO30"/>
+  <dimension ref="B1:CI30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="95" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="W9" sqref="W9"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="38" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="AY1" sqref="AY1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.6640625" customWidth="1"/>
     <col min="2" max="2" width="15.6640625" style="2" customWidth="1"/>
-    <col min="3" max="6" width="11.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.6640625" style="4" customWidth="1"/>
-    <col min="8" max="16" width="3" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="27" width="3.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="62" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="16" width="3.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="27" width="3.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="49" width="3.33203125" bestFit="1" customWidth="1"/>
+    <col min="50" max="87" width="3.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:67" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.85">
-      <c r="B1" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-    </row>
-    <row r="2" spans="2:67" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
+    <row r="1" spans="2:87" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.85">
+      <c r="B1" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+    </row>
+    <row r="2" spans="2:87" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
       <c r="G2" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" s="14">
+        <v>1</v>
+      </c>
+      <c r="J2" s="15"/>
+      <c r="K2" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="R2" s="31"/>
+      <c r="S2" s="31"/>
+      <c r="T2" s="30"/>
+      <c r="U2" s="17"/>
+      <c r="V2" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="W2" s="23"/>
+      <c r="X2" s="23"/>
+      <c r="Y2" s="32"/>
+      <c r="Z2" s="18"/>
+      <c r="AA2" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB2" s="23"/>
+      <c r="AC2" s="23"/>
+      <c r="AD2" s="23"/>
+      <c r="AE2" s="23"/>
+      <c r="AF2" s="23"/>
+      <c r="AG2" s="32"/>
+      <c r="AH2" s="19"/>
+      <c r="AI2" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ2" s="23"/>
+      <c r="AK2" s="23"/>
+      <c r="AL2" s="23"/>
+      <c r="AM2" s="23"/>
+      <c r="AN2" s="23"/>
+      <c r="AO2" s="23"/>
+      <c r="AP2" s="23"/>
+    </row>
+    <row r="3" spans="2:87" s="11" customFormat="1" ht="40" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="H2" s="15">
-        <v>1</v>
-      </c>
-      <c r="J2" s="16"/>
-      <c r="K2" s="30" t="s">
+      <c r="H3" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="R2" s="33"/>
-      <c r="S2" s="33"/>
-      <c r="T2" s="32"/>
-      <c r="U2" s="18"/>
-      <c r="V2" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="W2" s="24"/>
-      <c r="X2" s="24"/>
-      <c r="Y2" s="34"/>
-      <c r="Z2" s="19"/>
-      <c r="AA2" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB2" s="24"/>
-      <c r="AC2" s="24"/>
-      <c r="AD2" s="24"/>
-      <c r="AE2" s="24"/>
-      <c r="AF2" s="24"/>
-      <c r="AG2" s="34"/>
-      <c r="AH2" s="20"/>
-      <c r="AI2" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="AJ2" s="24"/>
-      <c r="AK2" s="24"/>
-      <c r="AL2" s="24"/>
-      <c r="AM2" s="24"/>
-      <c r="AN2" s="24"/>
-      <c r="AO2" s="24"/>
-      <c r="AP2" s="24"/>
-    </row>
-    <row r="3" spans="2:67" s="12" customFormat="1" ht="40" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="G3" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="H3" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="I3" s="10"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="11"/>
-      <c r="S3" s="11"/>
-      <c r="T3" s="11"/>
-      <c r="U3" s="11"/>
-      <c r="V3" s="11"/>
-      <c r="W3" s="11"/>
-      <c r="X3" s="11"/>
-      <c r="Y3" s="11"/>
-      <c r="Z3" s="11"/>
-      <c r="AA3" s="11"/>
-    </row>
-    <row r="4" spans="2:67" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="26"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="10"/>
+      <c r="W3" s="10"/>
+      <c r="X3" s="10"/>
+      <c r="Y3" s="10"/>
+      <c r="Z3" s="10"/>
+      <c r="AA3" s="10"/>
+    </row>
+    <row r="4" spans="2:87" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="25"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
       <c r="H4" s="3">
         <v>1</v>
       </c>
@@ -1362,242 +1339,302 @@
       <c r="BO4" s="3">
         <v>60</v>
       </c>
-    </row>
-    <row r="5" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BP4" s="3">
+        <v>61</v>
+      </c>
+      <c r="BQ4" s="3">
+        <v>62</v>
+      </c>
+      <c r="BR4" s="3">
+        <v>63</v>
+      </c>
+      <c r="BS4" s="3">
+        <v>64</v>
+      </c>
+      <c r="BT4" s="3">
+        <v>65</v>
+      </c>
+      <c r="BU4" s="3">
+        <v>66</v>
+      </c>
+      <c r="BV4" s="3">
+        <v>67</v>
+      </c>
+      <c r="BW4" s="3">
+        <v>68</v>
+      </c>
+      <c r="BX4" s="3">
+        <v>69</v>
+      </c>
+      <c r="BY4" s="3">
+        <v>70</v>
+      </c>
+      <c r="BZ4" s="3">
+        <v>71</v>
+      </c>
+      <c r="CA4" s="3">
+        <v>72</v>
+      </c>
+      <c r="CB4" s="3">
+        <v>73</v>
+      </c>
+      <c r="CC4" s="3">
+        <v>74</v>
+      </c>
+      <c r="CD4" s="3">
+        <v>75</v>
+      </c>
+      <c r="CE4" s="3">
+        <v>76</v>
+      </c>
+      <c r="CF4" s="3">
+        <v>77</v>
+      </c>
+      <c r="CG4" s="3">
+        <v>78</v>
+      </c>
+      <c r="CH4" s="3">
+        <v>79</v>
+      </c>
+      <c r="CI4" s="3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="2:87" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7">
+        <v>0</v>
+      </c>
+      <c r="F5" s="7">
+        <v>0</v>
+      </c>
+      <c r="G5" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:87" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="7">
+        <v>0</v>
+      </c>
+      <c r="D6" s="7">
+        <v>0</v>
+      </c>
+      <c r="E6" s="7">
+        <v>0</v>
+      </c>
+      <c r="F6" s="7">
+        <v>0</v>
+      </c>
+      <c r="G6" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:87" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="7">
+        <v>0</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0</v>
+      </c>
+      <c r="E7" s="7">
+        <v>0</v>
+      </c>
+      <c r="F7" s="7">
+        <v>0</v>
+      </c>
+      <c r="G7" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:87" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="7">
-        <v>1</v>
-      </c>
-      <c r="D5" s="7">
+      <c r="C8" s="7">
+        <v>0</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0</v>
+      </c>
+      <c r="E8" s="7">
+        <v>0</v>
+      </c>
+      <c r="F8" s="7">
+        <v>0</v>
+      </c>
+      <c r="G8" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:87" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="7">
+        <v>0</v>
+      </c>
+      <c r="D9" s="7">
+        <v>0</v>
+      </c>
+      <c r="E9" s="7">
+        <v>0</v>
+      </c>
+      <c r="F9" s="7">
+        <v>0</v>
+      </c>
+      <c r="G9" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:87" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="7">
-        <v>1</v>
-      </c>
-      <c r="F5" s="7">
-        <v>4</v>
-      </c>
-      <c r="G5" s="8">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="6" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="7">
-        <v>1</v>
-      </c>
-      <c r="D6" s="7">
+      <c r="C10" s="7">
+        <v>0</v>
+      </c>
+      <c r="D10" s="7">
+        <v>0</v>
+      </c>
+      <c r="E10" s="7">
+        <v>0</v>
+      </c>
+      <c r="F10" s="7">
+        <v>0</v>
+      </c>
+      <c r="G10" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:87" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="7">
-        <v>1</v>
-      </c>
-      <c r="F6" s="7">
-        <v>6</v>
-      </c>
-      <c r="G6" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="7">
-        <v>2</v>
-      </c>
-      <c r="D7" s="7">
-        <v>4</v>
-      </c>
-      <c r="E7" s="7">
-        <v>2</v>
-      </c>
-      <c r="F7" s="7">
-        <v>5</v>
-      </c>
-      <c r="G7" s="8">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="8" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="7">
-        <v>4</v>
-      </c>
-      <c r="D8" s="7">
+      <c r="C11" s="7">
+        <v>0</v>
+      </c>
+      <c r="D11" s="7">
+        <v>0</v>
+      </c>
+      <c r="E11" s="7">
+        <v>0</v>
+      </c>
+      <c r="F11" s="7">
+        <v>0</v>
+      </c>
+      <c r="G11" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:87" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="7">
+        <v>0</v>
+      </c>
+      <c r="D12" s="7">
+        <v>0</v>
+      </c>
+      <c r="E12" s="7">
+        <v>0</v>
+      </c>
+      <c r="F12" s="7">
+        <v>0</v>
+      </c>
+      <c r="G12" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:87" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="7">
-        <v>4</v>
-      </c>
-      <c r="F8" s="7">
-        <v>6</v>
-      </c>
-      <c r="G8" s="8">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="9" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="7">
-        <v>4</v>
-      </c>
-      <c r="D9" s="7">
-        <v>2</v>
-      </c>
-      <c r="E9" s="7">
-        <v>4</v>
-      </c>
-      <c r="F9" s="7">
-        <v>8</v>
-      </c>
-      <c r="G9" s="8">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="10" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="7">
-        <v>4</v>
-      </c>
-      <c r="D10" s="7">
-        <v>3</v>
-      </c>
-      <c r="E10" s="7">
-        <v>4</v>
-      </c>
-      <c r="F10" s="7">
-        <v>6</v>
-      </c>
-      <c r="G10" s="8">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="11" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="6" t="s">
+      <c r="C13" s="7">
+        <v>0</v>
+      </c>
+      <c r="D13" s="7">
+        <v>0</v>
+      </c>
+      <c r="E13" s="7">
+        <v>0</v>
+      </c>
+      <c r="F13" s="7">
+        <v>0</v>
+      </c>
+      <c r="G13" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:87" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="7">
-        <v>5</v>
-      </c>
-      <c r="D11" s="7">
-        <v>4</v>
-      </c>
-      <c r="E11" s="7">
-        <v>5</v>
-      </c>
-      <c r="F11" s="7">
-        <v>3</v>
-      </c>
-      <c r="G11" s="8">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="12" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="6" t="s">
+      <c r="C14" s="7">
+        <v>0</v>
+      </c>
+      <c r="D14" s="7">
+        <v>0</v>
+      </c>
+      <c r="E14" s="7">
+        <v>0</v>
+      </c>
+      <c r="F14" s="7">
+        <v>0</v>
+      </c>
+      <c r="G14" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:87" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="7">
-        <v>5</v>
-      </c>
-      <c r="D12" s="7">
-        <v>2</v>
-      </c>
-      <c r="E12" s="7">
-        <v>5</v>
-      </c>
-      <c r="F12" s="7">
-        <v>5</v>
-      </c>
-      <c r="G12" s="8">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="13" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="6" t="s">
+      <c r="C15" s="7">
+        <v>0</v>
+      </c>
+      <c r="D15" s="7">
+        <v>0</v>
+      </c>
+      <c r="E15" s="7">
+        <v>0</v>
+      </c>
+      <c r="F15" s="7">
+        <v>0</v>
+      </c>
+      <c r="G15" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:87" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="7">
-        <v>5</v>
-      </c>
-      <c r="D13" s="7">
-        <v>2</v>
-      </c>
-      <c r="E13" s="7">
-        <v>5</v>
-      </c>
-      <c r="F13" s="7">
-        <v>6</v>
-      </c>
-      <c r="G13" s="8">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="14" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="7">
-        <v>6</v>
-      </c>
-      <c r="D14" s="7">
-        <v>5</v>
-      </c>
-      <c r="E14" s="7">
-        <v>6</v>
-      </c>
-      <c r="F14" s="7">
-        <v>7</v>
-      </c>
-      <c r="G14" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="9">
-        <v>6</v>
-      </c>
-      <c r="D15" s="7">
-        <v>1</v>
-      </c>
-      <c r="E15" s="7">
-        <v>5</v>
-      </c>
-      <c r="F15" s="7">
-        <v>8</v>
-      </c>
-      <c r="G15" s="8">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="16" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="6" t="s">
-        <v>14</v>
-      </c>
       <c r="C16" s="7">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D16" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E16" s="7">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F16" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G16" s="8">
         <v>0</v>
@@ -1605,39 +1642,39 @@
     </row>
     <row r="17" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D17" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E17" s="7">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F17" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G17" s="8">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D18" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E18" s="7">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F18" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" s="8">
         <v>0</v>
@@ -1645,59 +1682,59 @@
     </row>
     <row r="19" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D19" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E19" s="7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F19" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G19" s="8">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D20" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E20" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F20" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G20" s="8">
-        <v>0.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C21" s="7">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D21" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E21" s="7">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F21" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G21" s="8">
         <v>0</v>
@@ -1705,19 +1742,19 @@
     </row>
     <row r="22" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C22" s="7">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D22" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E22" s="7">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F22" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G22" s="8">
         <v>0</v>
@@ -1725,19 +1762,19 @@
     </row>
     <row r="23" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C23" s="7">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D23" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" s="7">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F23" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G23" s="8">
         <v>0</v>
@@ -1745,19 +1782,19 @@
     </row>
     <row r="24" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C24" s="7">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="D24" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E24" s="7">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F24" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G24" s="8">
         <v>0</v>
@@ -1765,39 +1802,39 @@
     </row>
     <row r="25" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C25" s="7">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="D25" s="7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E25" s="7">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F25" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G25" s="8">
-        <v>0.44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C26" s="7">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="D26" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E26" s="7">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F26" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G26" s="8">
         <v>0</v>
@@ -1805,59 +1842,59 @@
     </row>
     <row r="27" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C27" s="7">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D27" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E27" s="7">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F27" s="7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G27" s="8">
-        <v>0.12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C28" s="7">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D28" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E28" s="7">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F28" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G28" s="8">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C29" s="7">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D29" s="7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E29" s="7">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F29" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G29" s="8">
         <v>0</v>
@@ -1865,22 +1902,22 @@
     </row>
     <row r="30" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C30" s="7">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="D30" s="7">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="E30" s="7">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F30" s="7">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G30" s="8">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1897,7 +1934,17 @@
     <mergeCell ref="V2:Y2"/>
     <mergeCell ref="AA2:AG2"/>
   </mergeCells>
-  <conditionalFormatting sqref="H5:BO30">
+  <conditionalFormatting sqref="B31:CI31">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4:CI4">
+    <cfRule type="expression" dxfId="0" priority="8">
+      <formula>H$4=period_selected</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5:CI30">
     <cfRule type="expression" dxfId="9" priority="1">
       <formula>PercentComplete</formula>
     </cfRule>
@@ -1923,16 +1970,6 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B31:BO31">
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H4:BO4">
-    <cfRule type="expression" dxfId="0" priority="8">
-      <formula>H$4=period_selected</formula>
-    </cfRule>
-  </conditionalFormatting>
   <dataValidations count="16">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Project planner uses periods for intervals. Start=1 is period 1 and duration=5 means project spans 5 periods starting from start period. Enter data starting in B5 to update the chart" sqref="A1" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
     <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Type a value from 1 to 60 or select a period from the list-press  CANCEL, ALT+DOWN ARROW, then ENTER to select a value" prompt="Enter a period in the range of 1 to 60 or select a period from the list. Press ALT+DOWN ARROW to navigate the list, then ENTER to select a value" sqref="H2" xr:uid="{00000000-0002-0000-0000-000001000000}">
@@ -1955,7 +1992,7 @@
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.45" right="0.45" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
-  <pageSetup scale="51" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="35" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter differentFirst="1">
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
